--- a/fileDemo/测试3.xlsx
+++ b/fileDemo/测试3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CODE\GoodGoodStudy\fileDemo\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CODE\GoodGoodStudy\fileDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DE89EF-6951-4C6D-9356-BFD912559131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1AEAE9-111B-485C-B262-26D2A75D3252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>测试A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,30 @@
   </si>
   <si>
     <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">四 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 二 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 测试B </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">测试D </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 测试C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +459,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -445,13 +469,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
@@ -481,13 +505,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -505,7 +529,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/fileDemo/测试3.xlsx
+++ b/fileDemo/测试3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\JetBrains\CODE\GoodGoodStudy\fileDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1AEAE9-111B-485C-B262-26D2A75D3252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79794BE3-BFDC-45B2-AD56-0D3847737728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +111,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,13 +134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC5D9F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,16 +149,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -162,19 +169,19 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,25 +466,25 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2"/>
@@ -498,7 +505,7 @@
       <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -516,7 +523,7 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -534,7 +541,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -552,36 +559,36 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
